--- a/Learning Datasheets/Turf Prediction/Data Turf Races Train - 8.xlsx
+++ b/Learning Datasheets/Turf Prediction/Data Turf Races Train - 8.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9240" uniqueCount="1180">
   <si>
     <t>Puesto</t>
   </si>
@@ -3551,111 +3551,6 @@
   </si>
   <si>
     <t>V. ALONSO. V</t>
-  </si>
-  <si>
-    <t>TELEMACHUS (GB)(10.000)</t>
-  </si>
-  <si>
-    <t>ZACARIAS SARMIENTO LOVELL</t>
-  </si>
-  <si>
-    <t>INCREDIT (GB)(10.000)</t>
-  </si>
-  <si>
-    <t>J. ZAMBUDIO (56,5)</t>
-  </si>
-  <si>
-    <t>AIFOS (6.000)</t>
-  </si>
-  <si>
-    <t>VINCERO (GB)(6.000)</t>
-  </si>
-  <si>
-    <t>A. MARTINEZ (52,5)</t>
-  </si>
-  <si>
-    <t>KRYPTON (10.000)</t>
-  </si>
-  <si>
-    <t>HALAGADA (10.000)</t>
-  </si>
-  <si>
-    <t>C. HAZEN (54)</t>
-  </si>
-  <si>
-    <t>SOPHIE'S WATCH (GB)</t>
-  </si>
-  <si>
-    <t>BUENA ELQUI</t>
-  </si>
-  <si>
-    <t>LOVE FIFTEEN (GB)</t>
-  </si>
-  <si>
-    <t>SARMIENTO Y DAVID</t>
-  </si>
-  <si>
-    <t>REBELLIOUS SPIRIT (IRE)</t>
-  </si>
-  <si>
-    <t>J. ZAMBUDIO (61)</t>
-  </si>
-  <si>
-    <t>FAR AWAY THOUGHTS (GB)</t>
-  </si>
-  <si>
-    <t>C. PEREZ (51)</t>
-  </si>
-  <si>
-    <t>GIRON (IRE)</t>
-  </si>
-  <si>
-    <t>JOLAM</t>
-  </si>
-  <si>
-    <t>M.J. GOMEZ</t>
-  </si>
-  <si>
-    <t>V. ALONSO V.(53)</t>
-  </si>
-  <si>
-    <t>B. ESTUPIÑAN (57)</t>
-  </si>
-  <si>
-    <t>ISLA DE FUERTEVENTURA</t>
-  </si>
-  <si>
-    <t>C. HAZEN (60)</t>
-  </si>
-  <si>
-    <t>B. ESTUPIÑAN (59,5)</t>
-  </si>
-  <si>
-    <t>HEREDADE GOMES</t>
-  </si>
-  <si>
-    <t>J. ZAMBUDIO (51)(G.ROJA)</t>
-  </si>
-  <si>
-    <t>GOLD BEACH (GB)</t>
-  </si>
-  <si>
-    <t>V. ALONSO V.(51)</t>
-  </si>
-  <si>
-    <t>YEGUADA LA DONNA</t>
-  </si>
-  <si>
-    <t>T. CALLEJO</t>
-  </si>
-  <si>
-    <t>HARRISON POINT (FR)</t>
-  </si>
-  <si>
-    <t>J. ZAMBUDIO (54)</t>
-  </si>
-  <si>
-    <t>C. HAZEN (55,5)</t>
   </si>
 </sst>
 </file>
@@ -71166,2154 +71061,772 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="B997" s="66" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C997" s="66">
-        <v>58.0</v>
-      </c>
-      <c r="D997" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="E997" s="91">
-        <v>0.0</v>
-      </c>
-      <c r="F997" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="G997" s="91">
-        <v>0.0</v>
-      </c>
-      <c r="H997" s="66" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I997" s="66" t="s">
-        <v>972</v>
-      </c>
-      <c r="J997" s="66" t="s">
-        <v>963</v>
-      </c>
+      <c r="A997" s="65"/>
+      <c r="B997" s="66"/>
+      <c r="C997" s="66"/>
+      <c r="D997" s="68"/>
+      <c r="E997" s="91"/>
+      <c r="F997" s="68"/>
+      <c r="G997" s="91"/>
+      <c r="H997" s="66"/>
+      <c r="I997" s="66"/>
+      <c r="J997" s="66"/>
       <c r="K997" s="109"/>
-      <c r="L997" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M997" s="72">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N997" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O997" s="74">
-        <v>1300.0</v>
-      </c>
-      <c r="P997" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q997" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R997" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="S997" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T997" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U997" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V997" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L997" s="71"/>
+      <c r="M997" s="72"/>
+      <c r="N997" s="73"/>
+      <c r="O997" s="74"/>
+      <c r="P997" s="75"/>
+      <c r="Q997" s="76"/>
+      <c r="R997" s="77"/>
+      <c r="S997" s="78"/>
+      <c r="T997" s="74"/>
+      <c r="U997" s="74"/>
+      <c r="V997" s="75"/>
     </row>
     <row r="998">
-      <c r="A998" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="B998" s="79" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C998" s="79">
-        <v>57.5</v>
-      </c>
-      <c r="D998" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E998" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F998" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="G998" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H998" s="79" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I998" s="79" t="s">
-        <v>977</v>
-      </c>
-      <c r="J998" s="79" t="s">
-        <v>1183</v>
-      </c>
+      <c r="A998" s="15"/>
+      <c r="B998" s="79"/>
+      <c r="C998" s="79"/>
+      <c r="D998" s="81"/>
+      <c r="E998" s="74"/>
+      <c r="F998" s="81"/>
+      <c r="G998" s="74"/>
+      <c r="H998" s="79"/>
+      <c r="I998" s="79"/>
+      <c r="J998" s="79"/>
       <c r="K998" s="84"/>
-      <c r="L998" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M998" s="72">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N998" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O998" s="74">
-        <v>1300.0</v>
-      </c>
-      <c r="P998" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q998" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R998" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S998" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T998" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U998" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V998" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L998" s="71"/>
+      <c r="M998" s="72"/>
+      <c r="N998" s="73"/>
+      <c r="O998" s="74"/>
+      <c r="P998" s="75"/>
+      <c r="Q998" s="76"/>
+      <c r="R998" s="82"/>
+      <c r="S998" s="78"/>
+      <c r="T998" s="74"/>
+      <c r="U998" s="74"/>
+      <c r="V998" s="75"/>
     </row>
     <row r="999">
-      <c r="A999" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B999" s="79" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C999" s="79">
-        <v>56.0</v>
-      </c>
-      <c r="D999" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E999" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F999" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="G999" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H999" s="79" t="s">
-        <v>557</v>
-      </c>
-      <c r="I999" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="J999" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="K999" s="81" t="s">
-        <v>523</v>
-      </c>
-      <c r="L999" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M999" s="72">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N999" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O999" s="74">
-        <v>1300.0</v>
-      </c>
-      <c r="P999" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q999" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R999" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S999" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T999" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U999" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V999" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A999" s="15"/>
+      <c r="B999" s="79"/>
+      <c r="C999" s="79"/>
+      <c r="D999" s="81"/>
+      <c r="E999" s="74"/>
+      <c r="F999" s="81"/>
+      <c r="G999" s="74"/>
+      <c r="H999" s="79"/>
+      <c r="I999" s="79"/>
+      <c r="J999" s="79"/>
+      <c r="K999" s="81"/>
+      <c r="L999" s="71"/>
+      <c r="M999" s="72"/>
+      <c r="N999" s="73"/>
+      <c r="O999" s="74"/>
+      <c r="P999" s="75"/>
+      <c r="Q999" s="76"/>
+      <c r="R999" s="82"/>
+      <c r="S999" s="78"/>
+      <c r="T999" s="74"/>
+      <c r="U999" s="74"/>
+      <c r="V999" s="75"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="B1000" s="79" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C1000" s="79">
-        <v>56.0</v>
-      </c>
-      <c r="D1000" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1000" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1000" s="81">
-        <v>6.0</v>
-      </c>
-      <c r="G1000" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1000" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1000" s="79" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J1000" s="79" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K1000" s="81">
-        <v>-8.0</v>
-      </c>
-      <c r="L1000" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1000" s="72">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N1000" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1000" s="74">
-        <v>1300.0</v>
-      </c>
-      <c r="P1000" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1000" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1000" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1000" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1000" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1000" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1000" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1000" s="15"/>
+      <c r="B1000" s="79"/>
+      <c r="C1000" s="79"/>
+      <c r="D1000" s="81"/>
+      <c r="E1000" s="74"/>
+      <c r="F1000" s="81"/>
+      <c r="G1000" s="74"/>
+      <c r="H1000" s="79"/>
+      <c r="I1000" s="79"/>
+      <c r="J1000" s="79"/>
+      <c r="K1000" s="81"/>
+      <c r="L1000" s="71"/>
+      <c r="M1000" s="72"/>
+      <c r="N1000" s="73"/>
+      <c r="O1000" s="74"/>
+      <c r="P1000" s="75"/>
+      <c r="Q1000" s="76"/>
+      <c r="R1000" s="82"/>
+      <c r="S1000" s="78"/>
+      <c r="T1000" s="74"/>
+      <c r="U1000" s="74"/>
+      <c r="V1000" s="75"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="B1001" s="79" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C1001" s="79">
-        <v>56.5</v>
-      </c>
-      <c r="D1001" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1001" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1001" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="G1001" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1001" s="79" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I1001" s="79" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J1001" s="79" t="s">
-        <v>927</v>
-      </c>
-      <c r="K1001" s="81">
-        <v>-3.0</v>
-      </c>
-      <c r="L1001" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1001" s="72">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N1001" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1001" s="74">
-        <v>1300.0</v>
-      </c>
-      <c r="P1001" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1001" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1001" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1001" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1001" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1001" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1001" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1001" s="15"/>
+      <c r="B1001" s="79"/>
+      <c r="C1001" s="79"/>
+      <c r="D1001" s="81"/>
+      <c r="E1001" s="74"/>
+      <c r="F1001" s="81"/>
+      <c r="G1001" s="74"/>
+      <c r="H1001" s="79"/>
+      <c r="I1001" s="79"/>
+      <c r="J1001" s="79"/>
+      <c r="K1001" s="81"/>
+      <c r="L1001" s="71"/>
+      <c r="M1001" s="72"/>
+      <c r="N1001" s="73"/>
+      <c r="O1001" s="74"/>
+      <c r="P1001" s="75"/>
+      <c r="Q1001" s="76"/>
+      <c r="R1001" s="82"/>
+      <c r="S1001" s="78"/>
+      <c r="T1001" s="74"/>
+      <c r="U1001" s="74"/>
+      <c r="V1001" s="75"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="15">
-        <v>97.0</v>
-      </c>
-      <c r="B1002" s="79" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C1002" s="79">
-        <v>57.5</v>
-      </c>
-      <c r="D1002" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1002" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1002" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="G1002" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1002" s="79" t="s">
-        <v>400</v>
-      </c>
-      <c r="I1002" s="79" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J1002" s="79" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K1002" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1002" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1002" s="72">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N1002" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1002" s="74">
-        <v>1300.0</v>
-      </c>
-      <c r="P1002" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1002" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1002" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1002" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1002" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1002" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1002" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1002" s="15"/>
+      <c r="B1002" s="79"/>
+      <c r="C1002" s="79"/>
+      <c r="D1002" s="81"/>
+      <c r="E1002" s="74"/>
+      <c r="F1002" s="81"/>
+      <c r="G1002" s="74"/>
+      <c r="H1002" s="79"/>
+      <c r="I1002" s="79"/>
+      <c r="J1002" s="79"/>
+      <c r="K1002" s="81"/>
+      <c r="L1002" s="71"/>
+      <c r="M1002" s="72"/>
+      <c r="N1002" s="73"/>
+      <c r="O1002" s="74"/>
+      <c r="P1002" s="75"/>
+      <c r="Q1002" s="76"/>
+      <c r="R1002" s="82"/>
+      <c r="S1002" s="78"/>
+      <c r="T1002" s="74"/>
+      <c r="U1002" s="74"/>
+      <c r="V1002" s="75"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="B1003" s="79" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C1003" s="81">
-        <v>54.5</v>
-      </c>
-      <c r="D1003" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="E1003" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1003" s="81">
-        <v>6.0</v>
-      </c>
-      <c r="G1003" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1003" s="79" t="s">
-        <v>534</v>
-      </c>
-      <c r="I1003" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1003" s="79" t="s">
-        <v>963</v>
-      </c>
-      <c r="K1003" s="79">
-        <v>-8.0</v>
-      </c>
-      <c r="L1003" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1003" s="72">
-        <v>0.6875</v>
-      </c>
-      <c r="N1003" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1003" s="74">
-        <v>1500.0</v>
-      </c>
-      <c r="P1003" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1003" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1003" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1003" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1003" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1003" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1003" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1003" s="15"/>
+      <c r="B1003" s="79"/>
+      <c r="C1003" s="81"/>
+      <c r="D1003" s="81"/>
+      <c r="E1003" s="74"/>
+      <c r="F1003" s="81"/>
+      <c r="G1003" s="74"/>
+      <c r="H1003" s="79"/>
+      <c r="I1003" s="79"/>
+      <c r="J1003" s="79"/>
+      <c r="K1003" s="79"/>
+      <c r="L1003" s="71"/>
+      <c r="M1003" s="72"/>
+      <c r="N1003" s="73"/>
+      <c r="O1003" s="74"/>
+      <c r="P1003" s="75"/>
+      <c r="Q1003" s="76"/>
+      <c r="R1003" s="82"/>
+      <c r="S1003" s="78"/>
+      <c r="T1003" s="74"/>
+      <c r="U1003" s="74"/>
+      <c r="V1003" s="75"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="B1004" s="79" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1004" s="81">
-        <v>54.5</v>
-      </c>
-      <c r="D1004" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="E1004" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1004" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="G1004" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1004" s="79" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I1004" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1004" s="79" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K1004" s="79">
-        <v>-8.0</v>
-      </c>
-      <c r="L1004" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1004" s="72">
-        <v>0.6875</v>
-      </c>
-      <c r="N1004" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1004" s="74">
-        <v>1500.0</v>
-      </c>
-      <c r="P1004" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1004" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1004" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1004" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1004" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1004" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1004" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1004" s="15"/>
+      <c r="B1004" s="79"/>
+      <c r="C1004" s="81"/>
+      <c r="D1004" s="81"/>
+      <c r="E1004" s="74"/>
+      <c r="F1004" s="81"/>
+      <c r="G1004" s="74"/>
+      <c r="H1004" s="79"/>
+      <c r="I1004" s="79"/>
+      <c r="J1004" s="79"/>
+      <c r="K1004" s="79"/>
+      <c r="L1004" s="71"/>
+      <c r="M1004" s="72"/>
+      <c r="N1004" s="73"/>
+      <c r="O1004" s="74"/>
+      <c r="P1004" s="75"/>
+      <c r="Q1004" s="76"/>
+      <c r="R1004" s="82"/>
+      <c r="S1004" s="78"/>
+      <c r="T1004" s="74"/>
+      <c r="U1004" s="74"/>
+      <c r="V1004" s="75"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B1005" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1005" s="81">
-        <v>54.5</v>
-      </c>
-      <c r="D1005" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="E1005" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1005" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="G1005" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1005" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1005" s="79" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1005" s="79" t="s">
-        <v>1098</v>
-      </c>
+      <c r="A1005" s="15"/>
+      <c r="B1005" s="79"/>
+      <c r="C1005" s="81"/>
+      <c r="D1005" s="81"/>
+      <c r="E1005" s="74"/>
+      <c r="F1005" s="81"/>
+      <c r="G1005" s="74"/>
+      <c r="H1005" s="79"/>
+      <c r="I1005" s="79"/>
+      <c r="J1005" s="79"/>
       <c r="K1005" s="84"/>
-      <c r="L1005" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1005" s="72">
-        <v>0.6875</v>
-      </c>
-      <c r="N1005" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1005" s="74">
-        <v>1500.0</v>
-      </c>
-      <c r="P1005" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1005" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1005" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1005" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1005" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1005" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1005" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1005" s="71"/>
+      <c r="M1005" s="72"/>
+      <c r="N1005" s="73"/>
+      <c r="O1005" s="74"/>
+      <c r="P1005" s="75"/>
+      <c r="Q1005" s="76"/>
+      <c r="R1005" s="82"/>
+      <c r="S1005" s="78"/>
+      <c r="T1005" s="74"/>
+      <c r="U1005" s="74"/>
+      <c r="V1005" s="75"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="B1006" s="79" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1006" s="81">
-        <v>56.5</v>
-      </c>
-      <c r="D1006" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="E1006" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1006" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="G1006" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1006" s="79" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I1006" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1006" s="79" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K1006" s="79">
-        <v>-8.0</v>
-      </c>
-      <c r="L1006" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1006" s="72">
-        <v>0.6875</v>
-      </c>
-      <c r="N1006" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1006" s="74">
-        <v>1500.0</v>
-      </c>
-      <c r="P1006" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1006" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1006" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1006" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1006" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1006" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1006" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1006" s="15"/>
+      <c r="B1006" s="79"/>
+      <c r="C1006" s="81"/>
+      <c r="D1006" s="81"/>
+      <c r="E1006" s="74"/>
+      <c r="F1006" s="81"/>
+      <c r="G1006" s="74"/>
+      <c r="H1006" s="79"/>
+      <c r="I1006" s="79"/>
+      <c r="J1006" s="79"/>
+      <c r="K1006" s="79"/>
+      <c r="L1006" s="71"/>
+      <c r="M1006" s="72"/>
+      <c r="N1006" s="73"/>
+      <c r="O1006" s="74"/>
+      <c r="P1006" s="75"/>
+      <c r="Q1006" s="76"/>
+      <c r="R1006" s="82"/>
+      <c r="S1006" s="78"/>
+      <c r="T1006" s="74"/>
+      <c r="U1006" s="74"/>
+      <c r="V1006" s="75"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="B1007" s="79" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C1007" s="81">
-        <v>56.0</v>
-      </c>
-      <c r="D1007" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="E1007" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1007" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="G1007" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1007" s="79" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I1007" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1007" s="79" t="s">
-        <v>927</v>
-      </c>
+      <c r="A1007" s="15"/>
+      <c r="B1007" s="79"/>
+      <c r="C1007" s="81"/>
+      <c r="D1007" s="81"/>
+      <c r="E1007" s="74"/>
+      <c r="F1007" s="81"/>
+      <c r="G1007" s="74"/>
+      <c r="H1007" s="79"/>
+      <c r="I1007" s="79"/>
+      <c r="J1007" s="79"/>
       <c r="K1007" s="84"/>
-      <c r="L1007" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1007" s="72">
-        <v>0.6875</v>
-      </c>
-      <c r="N1007" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1007" s="74">
-        <v>1500.0</v>
-      </c>
-      <c r="P1007" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1007" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1007" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1007" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1007" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1007" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1007" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1007" s="71"/>
+      <c r="M1007" s="72"/>
+      <c r="N1007" s="73"/>
+      <c r="O1007" s="74"/>
+      <c r="P1007" s="75"/>
+      <c r="Q1007" s="76"/>
+      <c r="R1007" s="82"/>
+      <c r="S1007" s="78"/>
+      <c r="T1007" s="74"/>
+      <c r="U1007" s="74"/>
+      <c r="V1007" s="75"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="B1008" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="C1008" s="81">
-        <v>56.0</v>
-      </c>
-      <c r="D1008" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="E1008" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1008" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="G1008" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1008" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1008" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="J1008" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1008" s="79">
-        <v>-8.0</v>
-      </c>
-      <c r="L1008" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1008" s="72">
-        <v>0.6875</v>
-      </c>
-      <c r="N1008" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1008" s="74">
-        <v>1500.0</v>
-      </c>
-      <c r="P1008" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1008" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1008" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1008" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1008" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1008" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1008" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1008" s="15"/>
+      <c r="B1008" s="79"/>
+      <c r="C1008" s="81"/>
+      <c r="D1008" s="81"/>
+      <c r="E1008" s="74"/>
+      <c r="F1008" s="81"/>
+      <c r="G1008" s="74"/>
+      <c r="H1008" s="79"/>
+      <c r="I1008" s="79"/>
+      <c r="J1008" s="79"/>
+      <c r="K1008" s="79"/>
+      <c r="L1008" s="71"/>
+      <c r="M1008" s="72"/>
+      <c r="N1008" s="73"/>
+      <c r="O1008" s="74"/>
+      <c r="P1008" s="75"/>
+      <c r="Q1008" s="76"/>
+      <c r="R1008" s="82"/>
+      <c r="S1008" s="78"/>
+      <c r="T1008" s="74"/>
+      <c r="U1008" s="74"/>
+      <c r="V1008" s="75"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="B1009" s="79" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1009" s="80">
-        <v>58.0</v>
-      </c>
-      <c r="D1009" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="E1009" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1009" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="G1009" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1009" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1009" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1009" s="79" t="s">
-        <v>963</v>
-      </c>
+      <c r="A1009" s="15"/>
+      <c r="B1009" s="79"/>
+      <c r="C1009" s="80"/>
+      <c r="D1009" s="81"/>
+      <c r="E1009" s="74"/>
+      <c r="F1009" s="81"/>
+      <c r="G1009" s="74"/>
+      <c r="H1009" s="79"/>
+      <c r="I1009" s="79"/>
+      <c r="J1009" s="79"/>
       <c r="K1009" s="84"/>
-      <c r="L1009" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1009" s="72">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="N1009" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1009" s="74">
-        <v>1400.0</v>
-      </c>
-      <c r="P1009" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1009" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1009" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1009" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1009" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1009" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1009" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1009" s="71"/>
+      <c r="M1009" s="72"/>
+      <c r="N1009" s="73"/>
+      <c r="O1009" s="74"/>
+      <c r="P1009" s="75"/>
+      <c r="Q1009" s="76"/>
+      <c r="R1009" s="82"/>
+      <c r="S1009" s="78"/>
+      <c r="T1009" s="74"/>
+      <c r="U1009" s="74"/>
+      <c r="V1009" s="75"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="B1010" s="79" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1010" s="80">
-        <v>62.0</v>
-      </c>
-      <c r="D1010" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="E1010" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1010" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="G1010" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1010" s="79" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I1010" s="79" t="s">
-        <v>977</v>
-      </c>
-      <c r="J1010" s="79" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K1010" s="81">
-        <v>-3.0</v>
-      </c>
-      <c r="L1010" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1010" s="72">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="N1010" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1010" s="74">
-        <v>1400.0</v>
-      </c>
-      <c r="P1010" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1010" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1010" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1010" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1010" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1010" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1010" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1010" s="15"/>
+      <c r="B1010" s="79"/>
+      <c r="C1010" s="80"/>
+      <c r="D1010" s="81"/>
+      <c r="E1010" s="74"/>
+      <c r="F1010" s="81"/>
+      <c r="G1010" s="74"/>
+      <c r="H1010" s="79"/>
+      <c r="I1010" s="79"/>
+      <c r="J1010" s="79"/>
+      <c r="K1010" s="81"/>
+      <c r="L1010" s="71"/>
+      <c r="M1010" s="72"/>
+      <c r="N1010" s="73"/>
+      <c r="O1010" s="74"/>
+      <c r="P1010" s="75"/>
+      <c r="Q1010" s="76"/>
+      <c r="R1010" s="82"/>
+      <c r="S1010" s="78"/>
+      <c r="T1010" s="74"/>
+      <c r="U1010" s="74"/>
+      <c r="V1010" s="75"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B1011" s="79" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C1011" s="80">
-        <v>54.0</v>
-      </c>
-      <c r="D1011" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1011" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1011" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="G1011" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1011" s="79" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I1011" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1011" s="79" t="s">
-        <v>1197</v>
-      </c>
+      <c r="A1011" s="15"/>
+      <c r="B1011" s="79"/>
+      <c r="C1011" s="80"/>
+      <c r="D1011" s="81"/>
+      <c r="E1011" s="74"/>
+      <c r="F1011" s="81"/>
+      <c r="G1011" s="74"/>
+      <c r="H1011" s="79"/>
+      <c r="I1011" s="79"/>
+      <c r="J1011" s="79"/>
       <c r="K1011" s="84"/>
-      <c r="L1011" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1011" s="72">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="N1011" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1011" s="74">
-        <v>1400.0</v>
-      </c>
-      <c r="P1011" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1011" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1011" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1011" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1011" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1011" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1011" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1011" s="71"/>
+      <c r="M1011" s="72"/>
+      <c r="N1011" s="73"/>
+      <c r="O1011" s="74"/>
+      <c r="P1011" s="75"/>
+      <c r="Q1011" s="76"/>
+      <c r="R1011" s="82"/>
+      <c r="S1011" s="78"/>
+      <c r="T1011" s="74"/>
+      <c r="U1011" s="74"/>
+      <c r="V1011" s="75"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="B1012" s="79" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C1012" s="80">
-        <v>54.0</v>
-      </c>
-      <c r="D1012" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="E1012" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1012" s="81">
-        <v>6.0</v>
-      </c>
-      <c r="G1012" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1012" s="79" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I1012" s="79" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J1012" s="79" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K1012" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1012" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1012" s="72">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="N1012" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1012" s="74">
-        <v>1400.0</v>
-      </c>
-      <c r="P1012" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1012" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1012" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1012" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1012" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1012" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1012" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1012" s="15"/>
+      <c r="B1012" s="79"/>
+      <c r="C1012" s="80"/>
+      <c r="D1012" s="81"/>
+      <c r="E1012" s="74"/>
+      <c r="F1012" s="81"/>
+      <c r="G1012" s="74"/>
+      <c r="H1012" s="79"/>
+      <c r="I1012" s="79"/>
+      <c r="J1012" s="79"/>
+      <c r="K1012" s="81"/>
+      <c r="L1012" s="71"/>
+      <c r="M1012" s="72"/>
+      <c r="N1012" s="73"/>
+      <c r="O1012" s="74"/>
+      <c r="P1012" s="75"/>
+      <c r="Q1012" s="76"/>
+      <c r="R1012" s="82"/>
+      <c r="S1012" s="78"/>
+      <c r="T1012" s="74"/>
+      <c r="U1012" s="74"/>
+      <c r="V1012" s="75"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="B1013" s="79" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1013" s="80">
-        <v>60.0</v>
-      </c>
-      <c r="D1013" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="E1013" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1013" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="G1013" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1013" s="79" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I1013" s="79" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1013" s="79" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K1013" s="81">
-        <v>-8.0</v>
-      </c>
-      <c r="L1013" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1013" s="72">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="N1013" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1013" s="74">
-        <v>1400.0</v>
-      </c>
-      <c r="P1013" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1013" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1013" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1013" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1013" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1013" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1013" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1013" s="15"/>
+      <c r="B1013" s="79"/>
+      <c r="C1013" s="80"/>
+      <c r="D1013" s="81"/>
+      <c r="E1013" s="74"/>
+      <c r="F1013" s="81"/>
+      <c r="G1013" s="74"/>
+      <c r="H1013" s="79"/>
+      <c r="I1013" s="79"/>
+      <c r="J1013" s="79"/>
+      <c r="K1013" s="81"/>
+      <c r="L1013" s="71"/>
+      <c r="M1013" s="72"/>
+      <c r="N1013" s="73"/>
+      <c r="O1013" s="74"/>
+      <c r="P1013" s="75"/>
+      <c r="Q1013" s="76"/>
+      <c r="R1013" s="82"/>
+      <c r="S1013" s="78"/>
+      <c r="T1013" s="74"/>
+      <c r="U1013" s="74"/>
+      <c r="V1013" s="75"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="15">
-        <v>97.0</v>
-      </c>
-      <c r="B1014" s="79" t="s">
-        <v>318</v>
-      </c>
-      <c r="C1014" s="80">
-        <v>64.0</v>
-      </c>
-      <c r="D1014" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="E1014" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1014" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="G1014" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1014" s="79" t="s">
-        <v>1203</v>
-      </c>
-      <c r="I1014" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1014" s="79" t="s">
-        <v>1204</v>
-      </c>
-      <c r="K1014" s="81" t="s">
-        <v>429</v>
-      </c>
-      <c r="L1014" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1014" s="72">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="N1014" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1014" s="74">
-        <v>1400.0</v>
-      </c>
-      <c r="P1014" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1014" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1014" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1014" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1014" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1014" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1014" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1014" s="15"/>
+      <c r="B1014" s="79"/>
+      <c r="C1014" s="80"/>
+      <c r="D1014" s="81"/>
+      <c r="E1014" s="74"/>
+      <c r="F1014" s="81"/>
+      <c r="G1014" s="74"/>
+      <c r="H1014" s="79"/>
+      <c r="I1014" s="79"/>
+      <c r="J1014" s="79"/>
+      <c r="K1014" s="81"/>
+      <c r="L1014" s="71"/>
+      <c r="M1014" s="72"/>
+      <c r="N1014" s="73"/>
+      <c r="O1014" s="74"/>
+      <c r="P1014" s="75"/>
+      <c r="Q1014" s="76"/>
+      <c r="R1014" s="82"/>
+      <c r="S1014" s="78"/>
+      <c r="T1014" s="74"/>
+      <c r="U1014" s="74"/>
+      <c r="V1014" s="75"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="B1015" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1015" s="81">
-        <v>62.0</v>
-      </c>
-      <c r="D1015" s="81">
-        <v>7.0</v>
-      </c>
-      <c r="E1015" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1015" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="G1015" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1015" s="79" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I1015" s="79" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1015" s="79" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K1015" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1015" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1015" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1015" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1015" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1015" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1015" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1015" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1015" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1015" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1015" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1015" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1015" s="15"/>
+      <c r="B1015" s="79"/>
+      <c r="C1015" s="81"/>
+      <c r="D1015" s="81"/>
+      <c r="E1015" s="74"/>
+      <c r="F1015" s="81"/>
+      <c r="G1015" s="74"/>
+      <c r="H1015" s="79"/>
+      <c r="I1015" s="79"/>
+      <c r="J1015" s="79"/>
+      <c r="K1015" s="81"/>
+      <c r="L1015" s="71"/>
+      <c r="M1015" s="72"/>
+      <c r="N1015" s="73"/>
+      <c r="O1015" s="74"/>
+      <c r="P1015" s="75"/>
+      <c r="Q1015" s="76"/>
+      <c r="R1015" s="82"/>
+      <c r="S1015" s="78"/>
+      <c r="T1015" s="74"/>
+      <c r="U1015" s="74"/>
+      <c r="V1015" s="75"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="B1016" s="79" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1016" s="81">
-        <v>63.0</v>
-      </c>
-      <c r="D1016" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="E1016" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1016" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="G1016" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1016" s="79" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I1016" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1016" s="79" t="s">
-        <v>174</v>
-      </c>
+      <c r="A1016" s="15"/>
+      <c r="B1016" s="79"/>
+      <c r="C1016" s="81"/>
+      <c r="D1016" s="81"/>
+      <c r="E1016" s="74"/>
+      <c r="F1016" s="81"/>
+      <c r="G1016" s="74"/>
+      <c r="H1016" s="79"/>
+      <c r="I1016" s="79"/>
+      <c r="J1016" s="79"/>
       <c r="K1016" s="84"/>
-      <c r="L1016" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1016" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1016" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1016" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1016" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1016" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1016" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1016" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1016" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1016" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1016" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1016" s="71"/>
+      <c r="M1016" s="72"/>
+      <c r="N1016" s="73"/>
+      <c r="O1016" s="74"/>
+      <c r="P1016" s="75"/>
+      <c r="Q1016" s="76"/>
+      <c r="R1016" s="82"/>
+      <c r="S1016" s="78"/>
+      <c r="T1016" s="74"/>
+      <c r="U1016" s="74"/>
+      <c r="V1016" s="75"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B1017" s="79" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1017" s="81">
-        <v>52.0</v>
-      </c>
-      <c r="D1017" s="81">
-        <v>7.0</v>
-      </c>
-      <c r="E1017" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1017" s="81">
-        <v>9.0</v>
-      </c>
-      <c r="G1017" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1017" s="79" t="s">
-        <v>644</v>
-      </c>
-      <c r="I1017" s="79" t="s">
-        <v>991</v>
-      </c>
-      <c r="J1017" s="79" t="s">
-        <v>1207</v>
-      </c>
-      <c r="K1017" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1017" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1017" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1017" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1017" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1017" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1017" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1017" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1017" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1017" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1017" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1017" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1017" s="15"/>
+      <c r="B1017" s="79"/>
+      <c r="C1017" s="81"/>
+      <c r="D1017" s="81"/>
+      <c r="E1017" s="74"/>
+      <c r="F1017" s="81"/>
+      <c r="G1017" s="74"/>
+      <c r="H1017" s="79"/>
+      <c r="I1017" s="79"/>
+      <c r="J1017" s="79"/>
+      <c r="K1017" s="81"/>
+      <c r="L1017" s="71"/>
+      <c r="M1017" s="72"/>
+      <c r="N1017" s="73"/>
+      <c r="O1017" s="74"/>
+      <c r="P1017" s="75"/>
+      <c r="Q1017" s="76"/>
+      <c r="R1017" s="82"/>
+      <c r="S1017" s="78"/>
+      <c r="T1017" s="74"/>
+      <c r="U1017" s="74"/>
+      <c r="V1017" s="75"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="B1018" s="79" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C1018" s="81">
-        <v>63.0</v>
-      </c>
-      <c r="D1018" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1018" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1018" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="G1018" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1018" s="79" t="s">
-        <v>644</v>
-      </c>
-      <c r="I1018" s="79" t="s">
-        <v>991</v>
-      </c>
-      <c r="J1018" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1018" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1018" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1018" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1018" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1018" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1018" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1018" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1018" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1018" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1018" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1018" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1018" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1018" s="15"/>
+      <c r="B1018" s="79"/>
+      <c r="C1018" s="81"/>
+      <c r="D1018" s="81"/>
+      <c r="E1018" s="74"/>
+      <c r="F1018" s="81"/>
+      <c r="G1018" s="74"/>
+      <c r="H1018" s="79"/>
+      <c r="I1018" s="79"/>
+      <c r="J1018" s="79"/>
+      <c r="K1018" s="81"/>
+      <c r="L1018" s="71"/>
+      <c r="M1018" s="72"/>
+      <c r="N1018" s="73"/>
+      <c r="O1018" s="74"/>
+      <c r="P1018" s="75"/>
+      <c r="Q1018" s="76"/>
+      <c r="R1018" s="82"/>
+      <c r="S1018" s="78"/>
+      <c r="T1018" s="74"/>
+      <c r="U1018" s="74"/>
+      <c r="V1018" s="75"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="B1019" s="79" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1019" s="81">
-        <v>61.0</v>
-      </c>
-      <c r="D1019" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="E1019" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1019" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="G1019" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1019" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1019" s="79" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1019" s="79" t="s">
-        <v>1160</v>
-      </c>
-      <c r="K1019" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1019" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1019" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1019" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1019" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1019" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1019" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1019" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1019" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1019" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1019" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1019" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1019" s="15"/>
+      <c r="B1019" s="79"/>
+      <c r="C1019" s="81"/>
+      <c r="D1019" s="81"/>
+      <c r="E1019" s="74"/>
+      <c r="F1019" s="81"/>
+      <c r="G1019" s="74"/>
+      <c r="H1019" s="79"/>
+      <c r="I1019" s="79"/>
+      <c r="J1019" s="79"/>
+      <c r="K1019" s="81"/>
+      <c r="L1019" s="71"/>
+      <c r="M1019" s="72"/>
+      <c r="N1019" s="73"/>
+      <c r="O1019" s="74"/>
+      <c r="P1019" s="75"/>
+      <c r="Q1019" s="76"/>
+      <c r="R1019" s="82"/>
+      <c r="S1019" s="78"/>
+      <c r="T1019" s="74"/>
+      <c r="U1019" s="74"/>
+      <c r="V1019" s="75"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="B1020" s="79" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C1020" s="81">
-        <v>52.0</v>
-      </c>
-      <c r="D1020" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="E1020" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1020" s="81">
-        <v>10.0</v>
-      </c>
-      <c r="G1020" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1020" s="79" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I1020" s="79" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J1020" s="79" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K1020" s="81">
-        <v>-3.0</v>
-      </c>
-      <c r="L1020" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1020" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1020" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1020" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1020" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1020" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1020" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1020" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1020" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1020" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1020" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1020" s="15"/>
+      <c r="B1020" s="79"/>
+      <c r="C1020" s="81"/>
+      <c r="D1020" s="81"/>
+      <c r="E1020" s="74"/>
+      <c r="F1020" s="81"/>
+      <c r="G1020" s="74"/>
+      <c r="H1020" s="79"/>
+      <c r="I1020" s="79"/>
+      <c r="J1020" s="79"/>
+      <c r="K1020" s="81"/>
+      <c r="L1020" s="71"/>
+      <c r="M1020" s="72"/>
+      <c r="N1020" s="73"/>
+      <c r="O1020" s="74"/>
+      <c r="P1020" s="75"/>
+      <c r="Q1020" s="76"/>
+      <c r="R1020" s="82"/>
+      <c r="S1020" s="78"/>
+      <c r="T1020" s="74"/>
+      <c r="U1020" s="74"/>
+      <c r="V1020" s="75"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="B1021" s="79" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1021" s="81">
-        <v>61.0</v>
-      </c>
-      <c r="D1021" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1021" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1021" s="81">
-        <v>6.0</v>
-      </c>
-      <c r="G1021" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1021" s="79" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I1021" s="79" t="s">
-        <v>1211</v>
-      </c>
-      <c r="J1021" s="79" t="s">
-        <v>927</v>
-      </c>
+      <c r="A1021" s="15"/>
+      <c r="B1021" s="79"/>
+      <c r="C1021" s="81"/>
+      <c r="D1021" s="81"/>
+      <c r="E1021" s="74"/>
+      <c r="F1021" s="81"/>
+      <c r="G1021" s="74"/>
+      <c r="H1021" s="79"/>
+      <c r="I1021" s="79"/>
+      <c r="J1021" s="79"/>
       <c r="K1021" s="84"/>
-      <c r="L1021" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1021" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1021" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1021" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1021" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1021" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1021" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1021" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1021" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1021" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1021" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1021" s="71"/>
+      <c r="M1021" s="72"/>
+      <c r="N1021" s="73"/>
+      <c r="O1021" s="74"/>
+      <c r="P1021" s="75"/>
+      <c r="Q1021" s="76"/>
+      <c r="R1021" s="82"/>
+      <c r="S1021" s="78"/>
+      <c r="T1021" s="74"/>
+      <c r="U1021" s="74"/>
+      <c r="V1021" s="75"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="B1022" s="79" t="s">
-        <v>355</v>
-      </c>
-      <c r="C1022" s="81">
-        <v>58.5</v>
-      </c>
-      <c r="D1022" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="E1022" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1022" s="81">
-        <v>7.0</v>
-      </c>
-      <c r="G1022" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1022" s="79" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I1022" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1022" s="79" t="s">
-        <v>44</v>
-      </c>
+      <c r="A1022" s="15"/>
+      <c r="B1022" s="79"/>
+      <c r="C1022" s="81"/>
+      <c r="D1022" s="81"/>
+      <c r="E1022" s="74"/>
+      <c r="F1022" s="81"/>
+      <c r="G1022" s="74"/>
+      <c r="H1022" s="79"/>
+      <c r="I1022" s="79"/>
+      <c r="J1022" s="79"/>
       <c r="K1022" s="84"/>
-      <c r="L1022" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1022" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1022" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1022" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1022" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1022" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1022" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1022" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1022" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1022" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1022" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1022" s="71"/>
+      <c r="M1022" s="72"/>
+      <c r="N1022" s="73"/>
+      <c r="O1022" s="74"/>
+      <c r="P1022" s="75"/>
+      <c r="Q1022" s="76"/>
+      <c r="R1022" s="82"/>
+      <c r="S1022" s="78"/>
+      <c r="T1022" s="74"/>
+      <c r="U1022" s="74"/>
+      <c r="V1022" s="75"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="15">
-        <v>97.0</v>
-      </c>
-      <c r="B1023" s="79" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C1023" s="81">
-        <v>62.5</v>
-      </c>
-      <c r="D1023" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1023" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1023" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="G1023" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1023" s="79" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I1023" s="79" t="s">
-        <v>977</v>
-      </c>
-      <c r="J1023" s="79" t="s">
-        <v>1171</v>
-      </c>
+      <c r="A1023" s="15"/>
+      <c r="B1023" s="79"/>
+      <c r="C1023" s="81"/>
+      <c r="D1023" s="81"/>
+      <c r="E1023" s="74"/>
+      <c r="F1023" s="81"/>
+      <c r="G1023" s="74"/>
+      <c r="H1023" s="79"/>
+      <c r="I1023" s="79"/>
+      <c r="J1023" s="79"/>
       <c r="K1023" s="84"/>
-      <c r="L1023" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1023" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1023" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1023" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1023" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1023" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1023" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1023" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1023" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1023" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1023" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1023" s="71"/>
+      <c r="M1023" s="72"/>
+      <c r="N1023" s="73"/>
+      <c r="O1023" s="74"/>
+      <c r="P1023" s="75"/>
+      <c r="Q1023" s="76"/>
+      <c r="R1023" s="82"/>
+      <c r="S1023" s="78"/>
+      <c r="T1023" s="74"/>
+      <c r="U1023" s="74"/>
+      <c r="V1023" s="75"/>
     </row>
     <row r="1024">
-      <c r="A1024" s="15">
-        <v>97.0</v>
-      </c>
-      <c r="B1024" s="79" t="s">
-        <v>997</v>
-      </c>
-      <c r="C1024" s="81">
-        <v>54.5</v>
-      </c>
-      <c r="D1024" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="E1024" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1024" s="81">
-        <v>8.0</v>
-      </c>
-      <c r="G1024" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1024" s="79" t="s">
-        <v>999</v>
-      </c>
-      <c r="I1024" s="79" t="s">
-        <v>943</v>
-      </c>
-      <c r="J1024" s="79" t="s">
-        <v>963</v>
-      </c>
+      <c r="A1024" s="15"/>
+      <c r="B1024" s="79"/>
+      <c r="C1024" s="81"/>
+      <c r="D1024" s="81"/>
+      <c r="E1024" s="74"/>
+      <c r="F1024" s="81"/>
+      <c r="G1024" s="74"/>
+      <c r="H1024" s="79"/>
+      <c r="I1024" s="79"/>
+      <c r="J1024" s="79"/>
       <c r="K1024" s="84"/>
-      <c r="L1024" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1024" s="72">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="N1024" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1024" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1024" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1024" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1024" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1024" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1024" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1024" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1024" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1024" s="71"/>
+      <c r="M1024" s="72"/>
+      <c r="N1024" s="73"/>
+      <c r="O1024" s="74"/>
+      <c r="P1024" s="75"/>
+      <c r="Q1024" s="76"/>
+      <c r="R1024" s="82"/>
+      <c r="S1024" s="78"/>
+      <c r="T1024" s="74"/>
+      <c r="U1024" s="74"/>
+      <c r="V1024" s="75"/>
     </row>
     <row r="1025">
-      <c r="A1025" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="B1025" s="79" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C1025" s="81">
-        <v>63.0</v>
-      </c>
-      <c r="D1025" s="81">
-        <v>5.0</v>
-      </c>
-      <c r="E1025" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1025" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="G1025" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1025" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1025" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1025" s="79" t="s">
-        <v>174</v>
-      </c>
+      <c r="A1025" s="15"/>
+      <c r="B1025" s="79"/>
+      <c r="C1025" s="81"/>
+      <c r="D1025" s="81"/>
+      <c r="E1025" s="74"/>
+      <c r="F1025" s="81"/>
+      <c r="G1025" s="74"/>
+      <c r="H1025" s="79"/>
+      <c r="I1025" s="79"/>
+      <c r="J1025" s="79"/>
       <c r="K1025" s="84"/>
-      <c r="L1025" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1025" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="N1025" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1025" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1025" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1025" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1025" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1025" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1025" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1025" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1025" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1025" s="71"/>
+      <c r="M1025" s="72"/>
+      <c r="N1025" s="73"/>
+      <c r="O1025" s="74"/>
+      <c r="P1025" s="75"/>
+      <c r="Q1025" s="76"/>
+      <c r="R1025" s="82"/>
+      <c r="S1025" s="78"/>
+      <c r="T1025" s="74"/>
+      <c r="U1025" s="74"/>
+      <c r="V1025" s="75"/>
     </row>
     <row r="1026">
-      <c r="A1026" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="B1026" s="79" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1026" s="81">
-        <v>57.0</v>
-      </c>
-      <c r="D1026" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="E1026" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1026" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="G1026" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1026" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="I1026" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1026" s="79" t="s">
-        <v>963</v>
-      </c>
-      <c r="K1026" s="81">
-        <v>-8.0</v>
-      </c>
-      <c r="L1026" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1026" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="N1026" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1026" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1026" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1026" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1026" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1026" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1026" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1026" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1026" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1026" s="15"/>
+      <c r="B1026" s="79"/>
+      <c r="C1026" s="81"/>
+      <c r="D1026" s="81"/>
+      <c r="E1026" s="74"/>
+      <c r="F1026" s="81"/>
+      <c r="G1026" s="74"/>
+      <c r="H1026" s="79"/>
+      <c r="I1026" s="79"/>
+      <c r="J1026" s="79"/>
+      <c r="K1026" s="81"/>
+      <c r="L1026" s="71"/>
+      <c r="M1026" s="72"/>
+      <c r="N1026" s="73"/>
+      <c r="O1026" s="74"/>
+      <c r="P1026" s="75"/>
+      <c r="Q1026" s="76"/>
+      <c r="R1026" s="82"/>
+      <c r="S1026" s="78"/>
+      <c r="T1026" s="74"/>
+      <c r="U1026" s="74"/>
+      <c r="V1026" s="75"/>
     </row>
     <row r="1027">
-      <c r="A1027" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B1027" s="79" t="s">
-        <v>677</v>
-      </c>
-      <c r="C1027" s="81">
-        <v>55.0</v>
-      </c>
-      <c r="D1027" s="81">
-        <v>3.0</v>
-      </c>
-      <c r="E1027" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1027" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="G1027" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1027" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1027" s="79" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J1027" s="79" t="s">
-        <v>1213</v>
-      </c>
+      <c r="A1027" s="15"/>
+      <c r="B1027" s="79"/>
+      <c r="C1027" s="81"/>
+      <c r="D1027" s="81"/>
+      <c r="E1027" s="74"/>
+      <c r="F1027" s="81"/>
+      <c r="G1027" s="74"/>
+      <c r="H1027" s="79"/>
+      <c r="I1027" s="79"/>
+      <c r="J1027" s="79"/>
       <c r="K1027" s="84"/>
-      <c r="L1027" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1027" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="N1027" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1027" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1027" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1027" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1027" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1027" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1027" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1027" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1027" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="L1027" s="71"/>
+      <c r="M1027" s="72"/>
+      <c r="N1027" s="73"/>
+      <c r="O1027" s="74"/>
+      <c r="P1027" s="75"/>
+      <c r="Q1027" s="76"/>
+      <c r="R1027" s="82"/>
+      <c r="S1027" s="78"/>
+      <c r="T1027" s="74"/>
+      <c r="U1027" s="74"/>
+      <c r="V1027" s="75"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="15">
-        <v>97.0</v>
-      </c>
-      <c r="B1028" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1028" s="81">
-        <v>59.0</v>
-      </c>
-      <c r="D1028" s="81">
-        <v>4.0</v>
-      </c>
-      <c r="E1028" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="F1028" s="81">
-        <v>2.0</v>
-      </c>
-      <c r="G1028" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="H1028" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1028" s="79" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1028" s="79" t="s">
-        <v>1214</v>
-      </c>
-      <c r="K1028" s="81">
-        <v>-8.0</v>
-      </c>
-      <c r="L1028" s="71">
-        <v>44917.0</v>
-      </c>
-      <c r="M1028" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="N1028" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1028" s="74">
-        <v>1900.0</v>
-      </c>
-      <c r="P1028" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1028" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="R1028" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1028" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="T1028" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="U1028" s="74">
-        <v>9.0</v>
-      </c>
-      <c r="V1028" s="75" t="s">
-        <v>928</v>
-      </c>
+      <c r="A1028" s="15"/>
+      <c r="B1028" s="79"/>
+      <c r="C1028" s="81"/>
+      <c r="D1028" s="81"/>
+      <c r="E1028" s="74"/>
+      <c r="F1028" s="81"/>
+      <c r="G1028" s="74"/>
+      <c r="H1028" s="79"/>
+      <c r="I1028" s="79"/>
+      <c r="J1028" s="79"/>
+      <c r="K1028" s="81"/>
+      <c r="L1028" s="71"/>
+      <c r="M1028" s="72"/>
+      <c r="N1028" s="73"/>
+      <c r="O1028" s="74"/>
+      <c r="P1028" s="75"/>
+      <c r="Q1028" s="76"/>
+      <c r="R1028" s="82"/>
+      <c r="S1028" s="78"/>
+      <c r="T1028" s="74"/>
+      <c r="U1028" s="74"/>
+      <c r="V1028" s="75"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
